--- a/biology/Botanique/Florina/Florina.xlsx
+++ b/biology/Botanique/Florina/Florina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florina est un cultivar de pommier domestique ; son nom commercial est Querina.
 Nom botanique : Malus domestica Borkh florina.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit a une coloration lamée et striée de rouge orange sur 3/4 à 4/4 de la surface.
 Calibre : petit à moyen et assez homogène.
@@ -520,7 +534,7 @@
 Chair : ferme, moyennement fine, juteuse, sucrée bien acidulée et moyennement parfumée.
 Vitamine C : 6 mg/100 g.
 Sucre : 8,2 %.
-Phosphore : teneur élevée (17,04 mg/100 g)[1].
+Phosphore : teneur élevée (17,04 mg/100 g).
 Le fruit se conserve très bien.
 La qualité gustative de Florina se dégrade si on prolonge la conservation.
 </t>
@@ -551,7 +565,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar a été obtenu en 1977 par l'INRA d'Angers (France).
 </t>
@@ -582,10 +598,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le fruit du croisement de Jonathan avec un hybride (PR1612-1) résistant aux races communes de tavelure.
-PRI 612-1 (f) x Jonathan (m) [2].
+PRI 612-1 (f) x Jonathan (m) .
 Ses caractéristiques génétiques en ont fait une ressource pour obtenir de nouvelles variétés : Delbardivine, Delbard Celeste, Harmonie, Ariane, etc.
 </t>
         </is>
@@ -615,7 +633,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Diploïde partiellement autofertile.
 La floraison est de longue durée et coïncide avec celle d'Ariane, autre pomme aussi génétiquement résistante aux races communes de tavelure.
@@ -649,16 +669,53 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Arbre au port semi-étalé (type IV) avec une vigueur forte à très forte selon le porte-greffe choisi. Peut se greffer sur EM106.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre au port semi-étalé (type IV) avec une vigueur forte à très forte selon le porte-greffe choisi. Peut se greffer sur EM106.
 Mature fin octobre. Consommable de mi-novembre à la fin février.
 Productivité élevée et alternance faible. Mise à fruit rapide.
 Nouaison importante. Il convient de bien éclaircir comme pour Golden Delicious.
 A tailler long pour favoriser la production sur brindilles couronnées. Une taille d'été est indispensable pour améliorer la coloration souvent hétérogène. Éviter de tailler trop sévèrement les premières années.
 En situation très fertile, l'arcure des rameaux aide à la mise à fruits.
-Résistances et sensibilités
-Cultivar résistant
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Florina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Résistances et sensibilités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cultivar résistant
 à la tavelure - Venturia inaequalis - (gène Vf),
 au puceron cendré du pommier - Dysaphis plantaginea.
 Peu sensible
